--- a/data/trans_bre/P16A03-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A03-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A03-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A03-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,47</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>194,71%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>577,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>382,43%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1,12; 8,58</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2,88; 9,83</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3,87; 9,56</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6,07; 799,81</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>65,66; 2598,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>125,58; 1211,48</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>132,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>228,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>135,74%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 4,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,39; 6,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 2,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,05; 3,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,27; 510,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,5; 1252,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,35; 455,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,17; 766,06</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>341,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>282,05%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>600,06%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,87%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,39; 7,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,57; 6,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,34; 5,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 6,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 1864,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,92; 979,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>76,74; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 223,5</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>114,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>314,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>394,38%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>105,71%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 7,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,34; 7,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,12; 9,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 2,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,15; 352,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>104,2; 703,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>97,56; 1370,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,13; 692,7</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1090,92%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>385,53%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>668,57%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>181,59%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>1,99; 9,04</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,52; 12,88</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 5,89</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2,52; 9,38</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>50,37; 1980,08</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,49; 512,65</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>272,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>593,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>243,03%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>140,1%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,6; 8,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,85; 7,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 5,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,34; 6,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,99; 1055,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,05; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,58; 1433,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,27; 361,67</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>116,28%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>395,45%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,75%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,7%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,07; 6,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,25; 7,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 3,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,02; 6,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,96; 308,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>121,13; 1043,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,22; 179,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 193,04</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,48%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>510,06%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>311,88%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>695,41%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 2,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,02; 5,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,27; 4,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,94; 2,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,13; 162,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>143,73; 1730,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>71,03; 885,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>82,86; —</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,69%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>351,14%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>224,97%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>143,35%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,09; 4,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,78; 5,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,09; 3,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,13; 3,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>78,61; 215,67</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>219,64; 572,34</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>129,27; 367,87</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>84,73; 210,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A03-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A03-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>6,51</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>163,66%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>382,43%</t>
+          <t>421,78%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 7,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,87; 9,56</t>
+          <t>3,98; 9,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,1; 706,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>125,58; 1211,48</t>
+          <t>147,91; 1339,17</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>135,74%</t>
+          <t>140,25%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 3,06</t>
+          <t>-0,01; 3,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 766,06</t>
+          <t>-6,26; 769,55</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>80,87%</t>
+          <t>81,82%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 6,33</t>
+          <t>0,33; 6,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 223,5</t>
+          <t>-1,32; 226,91</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>314,77%</t>
+          <t>494,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>105,71%</t>
+          <t>67,99%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,34; 7,95</t>
+          <t>3,85; 10,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 2,93</t>
+          <t>-1,59; 2,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>104,2; 703,84</t>
+          <t>113,64; 1566,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,13; 692,7</t>
+          <t>-72,83; 582,65</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>5,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>181,59%</t>
+          <t>186,02%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,52; 9,38</t>
+          <t>2,71; 9,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>43,49; 512,65</t>
+          <t>46,76; 519,21</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>140,1%</t>
+          <t>143,45%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,34; 6,68</t>
+          <t>1,4; 6,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>31,27; 361,67</t>
+          <t>33,08; 369,03</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>80,7%</t>
+          <t>61,73%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,02; 6,51</t>
+          <t>-1,72; 5,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 193,04</t>
+          <t>-29,05; 169,69</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>695,41%</t>
+          <t>912,19%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,58</t>
+          <t>1,01; 2,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>82,86; —</t>
+          <t>85,79; —</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>143,35%</t>
+          <t>148,7%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,82</t>
+          <t>1,89; 3,85</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>84,73; 210,01</t>
+          <t>81,73; 236,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A03-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A03-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 8,58</t>
+          <t>0,98; 8,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 7,54</t>
+          <t>0,61; 7,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,88; 9,83</t>
+          <t>2,91; 9,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,98; 9,56</t>
+          <t>3,81; 9,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,07; 799,81</t>
+          <t>13,44; 781,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 706,93</t>
+          <t>-2,83; 771,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>65,66; 2598,24</t>
+          <t>85,61; 2648,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>147,91; 1339,17</t>
+          <t>107,02; 1231,82</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 4,55</t>
+          <t>0,04; 4,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 6,82</t>
+          <t>1,45; 6,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 2,59</t>
+          <t>-0,52; 2,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 3,0</t>
+          <t>-0,02; 2,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,27; 510,78</t>
+          <t>-13,77; 551,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,5; 1252,91</t>
+          <t>29,96; 993,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-44,35; 455,78</t>
+          <t>-36,05; 512,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 769,55</t>
+          <t>-19,52; 543,2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 7,01</t>
+          <t>1,39; 7,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 6,88</t>
+          <t>1,76; 7,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 5,81</t>
+          <t>1,02; 5,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 6,32</t>
+          <t>0,36; 6,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 1864,58</t>
+          <t>12,51; 2016,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,92; 979,72</t>
+          <t>45,14; 1353,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>76,74; —</t>
+          <t>-27,9; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 226,91</t>
+          <t>4,08; 240,81</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 7,13</t>
+          <t>0,82; 6,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,85; 10,37</t>
+          <t>3,93; 10,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,12; 9,26</t>
+          <t>3,4; 9,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 2,42</t>
+          <t>-1,45; 2,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,15; 352,96</t>
+          <t>13,82; 348,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>113,64; 1566,49</t>
+          <t>154,35; 1771,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,56; 1370,93</t>
+          <t>116,65; 1191,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-72,83; 582,65</t>
+          <t>-70,55; 645,64</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,99; 9,04</t>
+          <t>2,03; 8,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,52; 12,88</t>
+          <t>3,6; 12,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 5,89</t>
+          <t>0,56; 5,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,71; 9,55</t>
+          <t>2,62; 9,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>50,37; 1980,08</t>
+          <t>52,12; 1763,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>46,76; 519,21</t>
+          <t>34,8; 504,63</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,6; 8,27</t>
+          <t>1,9; 8,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,85; 7,92</t>
+          <t>2,09; 7,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,05; 5,35</t>
+          <t>0,39; 5,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,4; 6,7</t>
+          <t>1,46; 6,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,99; 1055,9</t>
+          <t>38,02; 991,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>56,05; —</t>
+          <t>47,51; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,58; 1433,55</t>
+          <t>-14,48; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>33,08; 369,03</t>
+          <t>24,73; 375,26</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,07; 6,05</t>
+          <t>1,13; 5,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,25; 7,48</t>
+          <t>3,12; 7,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 3,18</t>
+          <t>-0,46; 3,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 5,79</t>
+          <t>-1,61; 5,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,96; 308,07</t>
+          <t>20,73; 279,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>121,13; 1043,5</t>
+          <t>113,24; 1015,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-27,22; 179,19</t>
+          <t>-17,11; 211,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-29,05; 169,69</t>
+          <t>-29,23; 159,43</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 2,7</t>
+          <t>-0,69; 2,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,35</t>
+          <t>2,12; 5,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,22</t>
+          <t>1,38; 4,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,61</t>
+          <t>1,05; 2,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,13; 162,12</t>
+          <t>-22,08; 168,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>143,73; 1730,61</t>
+          <t>138,82; 1640,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>71,03; 885,77</t>
+          <t>79,28; 933,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>85,79; —</t>
+          <t>83,83; —</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,05</t>
+          <t>2,11; 3,99</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,78; 5,7</t>
+          <t>3,8; 5,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,66</t>
+          <t>2,09; 3,65</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,89; 3,85</t>
+          <t>1,88; 3,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>78,61; 215,67</t>
+          <t>81,59; 222,67</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>219,64; 572,34</t>
+          <t>221,47; 535,8</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>129,27; 367,87</t>
+          <t>130,28; 361,75</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>81,73; 236,17</t>
+          <t>84,72; 237,71</t>
         </is>
       </c>
     </row>
